--- a/Spreadsheets/PredictionResults.xlsx
+++ b/Spreadsheets/PredictionResults.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\EmailPaper\Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kstraub/Documents/Research/EmailPaper/EmailPaper/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prediction Results" sheetId="1" r:id="rId1"/>
     <sheet name="Split Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -140,7 +143,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -181,22 +184,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -218,7 +221,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -259,22 +262,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -290,11 +293,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="71629552"/>
-        <c:axId val="259980816"/>
+        <c:axId val="-2130580400"/>
+        <c:axId val="-2127374064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71629552"/>
+        <c:axId val="-2130580400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -337,7 +340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259980816"/>
+        <c:crossAx val="-2127374064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -345,7 +348,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259980816"/>
+        <c:axId val="-2127374064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,7 +455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71629552"/>
+        <c:crossAx val="-2130580400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1159,9 +1162,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1194,9 +1197,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1379,16 +1382,16 @@
   <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -1408,7 +1411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1466,7 +1469,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Spreadsheets/PredictionResults.xlsx
+++ b/Spreadsheets/PredictionResults.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
-    <sheet name="Prediction Results" sheetId="1" r:id="rId1"/>
-    <sheet name="Split Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="CV_Pred_Results" sheetId="3" r:id="rId1"/>
+    <sheet name="Prediction Results" sheetId="1" r:id="rId2"/>
+    <sheet name="Split Analysis" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Research</t>
   </si>
@@ -132,7 +133,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Prediction Results'!$A$3</c:f>
+              <c:f>CV_Pred_Results!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -153,7 +154,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Prediction Results'!$B$2:$G$2</c:f>
+              <c:f>CV_Pred_Results!$B$2:$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -179,21 +180,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Prediction Results'!$B$3:$G$3</c:f>
+              <c:f>CV_Pred_Results!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>30.0</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.0</c:v>
@@ -210,7 +211,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Prediction Results'!$A$4</c:f>
+              <c:f>CV_Pred_Results!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -231,7 +232,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Prediction Results'!$B$2:$G$2</c:f>
+              <c:f>CV_Pred_Results!$B$2:$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -257,21 +258,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Prediction Results'!$B$4:$G$4</c:f>
+              <c:f>CV_Pred_Results!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0</c:v>
@@ -293,11 +294,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2130580400"/>
-        <c:axId val="-2127374064"/>
+        <c:axId val="-2102056192"/>
+        <c:axId val="-2105298144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2130580400"/>
+        <c:axId val="-2102056192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -340,7 +341,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127374064"/>
+        <c:crossAx val="-2105298144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -348,7 +349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127374064"/>
+        <c:axId val="-2105298144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,7 +456,437 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130580400"/>
+        <c:crossAx val="-2102056192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prediction Results'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Prediction Results'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GradStudent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Research</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Operations</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outreach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Director</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Prediction Results'!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prediction Results'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incorrect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Prediction Results'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GradStudent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Research</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Operations</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outreach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Director</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Prediction Results'!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2117376992"/>
+        <c:axId val="-2116351232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2117376992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2116351232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2116351232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                  <a:t>Number of Employees</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2117376992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -576,6 +1007,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -1081,7 +1552,549 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1381,6 +2394,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G4"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G4"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
@@ -1463,11 +2562,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
